--- a/optimization/Gurobi/5 districts/With meaningful graphs generation/Excel files/1-D to I.xlsx
+++ b/optimization/Gurobi/5 districts/With meaningful graphs generation/Excel files/1-D to I.xlsx
@@ -453,7 +453,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>13439.99999999972</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -464,7 +464,7 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>13439.99999999951</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="12" spans="1:3">
